--- a/csat/epsilon/lookups.xlsx
+++ b/csat/epsilon/lookups.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\Ruby26x64\msys64\home\aandrade\sites\PBIX\csat\epsilon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sites\PBIX\csat\epsilon\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB5386A-6E00-4947-98CF-50F077401B59}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lookup_tables" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="382">
   <si>
     <t>Contact Type</t>
   </si>
@@ -1131,12 +1132,51 @@
   </si>
   <si>
     <t>XenDesktop</t>
+  </si>
+  <si>
+    <t>ebergoniajr</t>
+  </si>
+  <si>
+    <t>ramador</t>
+  </si>
+  <si>
+    <t>slyon</t>
+  </si>
+  <si>
+    <t>tsylte</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Voicemail</t>
+  </si>
+  <si>
+    <t>Customer Account</t>
+  </si>
+  <si>
+    <t>1&amp;1 Internet, Inc.</t>
+  </si>
+  <si>
+    <t>Citibank - Global Rewards</t>
+  </si>
+  <si>
+    <t>Epsilon Associate</t>
+  </si>
+  <si>
+    <t>Epsilon Internal</t>
+  </si>
+  <si>
+    <t>Sandbox 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1201,9 +1241,27 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="repCellStyle" xfId="1"/>
+    <cellStyle name="repCellStyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF272B30"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1341,39 +1399,11 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFF5F5F5"/>
+          <bgColor rgb="FFF2F2F2"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF272B30"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1428,23 +1458,51 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF5F5F5"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF272B30"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="repTblStyle" defaultPivotStyle="repPvtStyle">
-    <tableStyle name="repPvtStyle" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="9"/>
-      <tableStyleElement type="headerRow" dxfId="8"/>
+    <tableStyle name="repPvtStyle" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
     </tableStyle>
-    <tableStyle name="repTblStyle" pivot="0" count="4">
+    <tableStyle name="repTblStyle" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1459,90 +1517,100 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ContactTypes" displayName="ContactTypes" ref="A1:A8" totalsRowShown="0" headerRowDxfId="7" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
-  <autoFilter ref="A1:A8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ContactTypes" displayName="ContactTypes" ref="A1:A8" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
+  <autoFilter ref="A1:A8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Contact Type" dataCellStyle="repCellStyle"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Contact Type" dataCellStyle="repCellStyle"/>
   </tableColumns>
   <tableStyleInfo name="repTblStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Responses" displayName="Responses" ref="C1:G6" totalsRowShown="0" headerRowDxfId="6" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
-  <autoFilter ref="C1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Responses" displayName="Responses" ref="C1:G6" totalsRowShown="0" headerRowDxfId="7" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
+  <autoFilter ref="C1:G6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Value" dataCellStyle="repCellStyle"/>
-    <tableColumn id="2" name="Display" dataCellStyle="repCellStyle"/>
-    <tableColumn id="3" name="CSAT" dataCellStyle="repCellStyle"/>
-    <tableColumn id="4" name="DSAT" dataCellStyle="repCellStyle"/>
-    <tableColumn id="5" name="Score" dataCellStyle="repCellStyle"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Value" dataCellStyle="repCellStyle"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Display" dataCellStyle="repCellStyle"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CSAT" dataCellStyle="repCellStyle"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DSAT" dataCellStyle="repCellStyle"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Score" dataCellStyle="repCellStyle"/>
   </tableColumns>
   <tableStyleInfo name="repTblStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TaskTypes" displayName="TaskTypes" ref="I1:I3" totalsRowShown="0" headerRowDxfId="5" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
-  <autoFilter ref="I1:I3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TaskTypes" displayName="TaskTypes" ref="I1:I3" totalsRowShown="0" headerRowDxfId="6" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
+  <autoFilter ref="I1:I3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Task Type" dataCellStyle="repCellStyle"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Task Type" dataCellStyle="repCellStyle"/>
   </tableColumns>
   <tableStyleInfo name="repTblStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Priorities" displayName="Priorities" ref="K1:K6" totalsRowShown="0" headerRowDxfId="4" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
-  <autoFilter ref="K1:K6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Priorities" displayName="Priorities" ref="K1:K6" totalsRowShown="0" headerRowDxfId="5" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
+  <autoFilter ref="K1:K6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Priority" dataCellStyle="repCellStyle"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Priority" dataCellStyle="repCellStyle"/>
   </tableColumns>
   <tableStyleInfo name="repTblStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="GrpMembers" displayName="GrpMembers" ref="M1:P133" totalsRowShown="0" headerRowDxfId="3" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
-  <autoFilter ref="M1:P133"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="GrpMembers" displayName="GrpMembers" ref="M1:P137" totalsRowShown="0" headerRowDxfId="4" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
+  <autoFilter ref="M1:P137" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Username" dataCellStyle="repCellStyle"/>
-    <tableColumn id="2" name="Last Name" dataCellStyle="repCellStyle"/>
-    <tableColumn id="3" name="Full Name" dataCellStyle="repCellStyle"/>
-    <tableColumn id="4" name="Group Name" dataCellStyle="repCellStyle"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Username" dataCellStyle="repCellStyle"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Last Name" dataCellStyle="repCellStyle"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Full Name" dataCellStyle="repCellStyle"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Group Name" dataCellStyle="repCellStyle"/>
   </tableColumns>
   <tableStyleInfo name="repTblStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="SurveyDefinitions" displayName="SurveyDefinitions" ref="R1:U8" totalsRowShown="0" headerRowDxfId="2" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
-  <autoFilter ref="R1:U8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="SurveyDefinitions" displayName="SurveyDefinitions" ref="R1:U8" totalsRowShown="0" headerRowDxfId="3" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
+  <autoFilter ref="R1:U8" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Type" dataCellStyle="repCellStyle"/>
-    <tableColumn id="2" name="Question" dataCellStyle="repCellStyle"/>
-    <tableColumn id="3" name="Order" dataCellStyle="repCellStyle"/>
-    <tableColumn id="4" name="DataType" dataCellStyle="repCellStyle"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Type" dataCellStyle="repCellStyle"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Question" dataCellStyle="repCellStyle"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Order" dataCellStyle="repCellStyle"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="DataType" dataCellStyle="repCellStyle"/>
   </tableColumns>
   <tableStyleInfo name="repTblStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Categories" displayName="Categories" ref="W1:W10" totalsRowShown="0" headerRowDxfId="1" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
-  <autoFilter ref="W1:W10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Categories" displayName="Categories" ref="W1:W13" totalsRowShown="0" headerRowDxfId="2" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
+  <autoFilter ref="W1:W13" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Category" dataCellStyle="repCellStyle"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Category" dataCellStyle="repCellStyle"/>
   </tableColumns>
   <tableStyleInfo name="repTblStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Subcategories" displayName="Subcategories" ref="Y1:Y32" totalsRowShown="0" headerRowDxfId="0" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
-  <autoFilter ref="Y1:Y32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Subcategories" displayName="Subcategories" ref="Y1:Y33" totalsRowShown="0" headerRowDxfId="1" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
+  <autoFilter ref="Y1:Y33" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Subcategory" dataCellStyle="repCellStyle"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Subcategory" dataCellStyle="repCellStyle"/>
+  </tableColumns>
+  <tableStyleInfo name="repTblStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7B74C696-7F3D-4F4D-8A4E-BB84DF7F106A}" name="CustomerAccounts" displayName="CustomerAccounts" ref="AA1:AA6" totalsRowShown="0" headerRowDxfId="0" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
+  <autoFilter ref="AA1:AA6" xr:uid="{43C31E95-126B-4613-A210-1B98B797A18B}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{70889A08-7F06-41EE-AB80-B6AAB95E1283}" name="Customer Account" dataCellStyle="repCellStyle"/>
   </tableColumns>
   <tableStyleInfo name="repTblStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1810,12 +1878,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA137"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A8"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1823,10 +1889,12 @@
     <col min="23" max="23" width="10.140625" style="1" customWidth="1"/>
     <col min="24" max="24" width="9.140625" style="1"/>
     <col min="25" max="25" width="12.7109375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="26" max="26" width="9.140625" style="1"/>
+    <col min="27" max="27" width="17.5703125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1881,8 +1949,11 @@
       <c r="Y1" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA1" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1937,8 +2008,11 @@
       <c r="Y2" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA2" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1993,8 +2067,11 @@
       <c r="Y3" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA3" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2046,8 +2123,11 @@
       <c r="Y4" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA4" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2099,8 +2179,11 @@
       <c r="Y5" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA5" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2152,8 +2235,11 @@
       <c r="Y6" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA6" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2188,7 +2274,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2223,7 +2309,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="M9" s="4" t="s">
         <v>53</v>
       </c>
@@ -2243,7 +2329,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="M10" s="4" t="s">
         <v>56</v>
       </c>
@@ -2263,7 +2349,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="M11" s="4" t="s">
         <v>59</v>
       </c>
@@ -2276,11 +2362,14 @@
       <c r="P11" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="W11" s="4" t="s">
+        <v>373</v>
+      </c>
       <c r="Y11" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="M12" s="4" t="s">
         <v>62</v>
       </c>
@@ -2293,11 +2382,14 @@
       <c r="P12" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="W12" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="Y12" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="M13" s="4" t="s">
         <v>65</v>
       </c>
@@ -2310,11 +2402,14 @@
       <c r="P13" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="W13" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="Y13" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="M14" s="4" t="s">
         <v>68</v>
       </c>
@@ -2331,7 +2426,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="M15" s="4" t="s">
         <v>71</v>
       </c>
@@ -2348,7 +2443,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="M16" s="4" t="s">
         <v>74</v>
       </c>
@@ -2637,7 +2732,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="13:25" x14ac:dyDescent="0.2">
       <c r="M33" s="4" t="s">
         <v>125</v>
       </c>
@@ -2650,8 +2745,11 @@
       <c r="P33" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="Y33" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="34" spans="13:25" x14ac:dyDescent="0.2">
       <c r="M34" s="4" t="s">
         <v>128</v>
       </c>
@@ -2665,7 +2763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="13:25" x14ac:dyDescent="0.2">
       <c r="M35" s="4" t="s">
         <v>131</v>
       </c>
@@ -2679,7 +2777,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="13:25" x14ac:dyDescent="0.2">
       <c r="M36" s="4" t="s">
         <v>134</v>
       </c>
@@ -2693,7 +2791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="13:25" x14ac:dyDescent="0.2">
       <c r="M37" s="4" t="s">
         <v>137</v>
       </c>
@@ -2707,7 +2805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="13:25" x14ac:dyDescent="0.2">
       <c r="M38" s="4" t="s">
         <v>140</v>
       </c>
@@ -2721,7 +2819,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="13:25" x14ac:dyDescent="0.2">
       <c r="M39" s="4" t="s">
         <v>143</v>
       </c>
@@ -2735,7 +2833,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="13:25" x14ac:dyDescent="0.2">
       <c r="M40" s="4" t="s">
         <v>146</v>
       </c>
@@ -2749,7 +2847,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="13:25" x14ac:dyDescent="0.2">
       <c r="M41" s="4" t="s">
         <v>149</v>
       </c>
@@ -2763,7 +2861,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="13:25" x14ac:dyDescent="0.2">
       <c r="M42" s="4" t="s">
         <v>152</v>
       </c>
@@ -2777,7 +2875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="13:25" x14ac:dyDescent="0.2">
       <c r="M43" s="4" t="s">
         <v>155</v>
       </c>
@@ -2791,7 +2889,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="13:25" x14ac:dyDescent="0.2">
       <c r="M44" s="4" t="s">
         <v>158</v>
       </c>
@@ -2805,7 +2903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="13:25" x14ac:dyDescent="0.2">
       <c r="M45" s="4" t="s">
         <v>161</v>
       </c>
@@ -2819,7 +2917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="13:25" x14ac:dyDescent="0.2">
       <c r="M46" s="4" t="s">
         <v>164</v>
       </c>
@@ -2833,7 +2931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="13:25" x14ac:dyDescent="0.2">
       <c r="M47" s="4" t="s">
         <v>167</v>
       </c>
@@ -2847,7 +2945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="13:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="13:25" x14ac:dyDescent="0.2">
       <c r="M48" s="4" t="s">
         <v>170</v>
       </c>
@@ -4051,9 +4149,65 @@
         <v>185</v>
       </c>
     </row>
+    <row r="134" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M134" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="N134" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="O134" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="P134" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M135" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="N135" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="O135" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="P135" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M136" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="N136" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="O136" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="P136" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M137" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="N137" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="O137" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="P137" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="8">
+  <tableParts count="9">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -4062,6 +4216,7 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/csat/epsilon/lookups.xlsx
+++ b/csat/epsilon/lookups.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sites\PBIX\csat\epsilon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\Ruby26x64\msys64\home\aandrade\sites\PBIX\csat\epsilon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB5386A-6E00-4947-98CF-50F077401B59}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="lookup_tables" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="383">
   <si>
     <t>Contact Type</t>
   </si>
@@ -1171,12 +1170,15 @@
   </si>
   <si>
     <t>Sandbox 1</t>
+  </si>
+  <si>
+    <t>Undefined</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1241,7 +1243,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="repCellStyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="repCellStyle" xfId="1"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -1258,7 +1260,6 @@
         <sz val="10"/>
         <color rgb="FF272B30"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1494,11 +1495,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="repTblStyle" defaultPivotStyle="repPvtStyle">
-    <tableStyle name="repPvtStyle" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="repPvtStyle" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
     </tableStyle>
-    <tableStyle name="repTblStyle" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="repTblStyle" pivot="0" count="4">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -1517,100 +1518,100 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ContactTypes" displayName="ContactTypes" ref="A1:A8" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
-  <autoFilter ref="A1:A8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ContactTypes" displayName="ContactTypes" ref="A1:A9" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
+  <autoFilter ref="A1:A9"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Contact Type" dataCellStyle="repCellStyle"/>
+    <tableColumn id="1" name="Contact Type" dataCellStyle="repCellStyle"/>
   </tableColumns>
   <tableStyleInfo name="repTblStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Responses" displayName="Responses" ref="C1:G6" totalsRowShown="0" headerRowDxfId="7" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
-  <autoFilter ref="C1:G6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Responses" displayName="Responses" ref="C1:G6" totalsRowShown="0" headerRowDxfId="7" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
+  <autoFilter ref="C1:G6"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Value" dataCellStyle="repCellStyle"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Display" dataCellStyle="repCellStyle"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CSAT" dataCellStyle="repCellStyle"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DSAT" dataCellStyle="repCellStyle"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Score" dataCellStyle="repCellStyle"/>
+    <tableColumn id="1" name="Value" dataCellStyle="repCellStyle"/>
+    <tableColumn id="2" name="Display" dataCellStyle="repCellStyle"/>
+    <tableColumn id="3" name="CSAT" dataCellStyle="repCellStyle"/>
+    <tableColumn id="4" name="DSAT" dataCellStyle="repCellStyle"/>
+    <tableColumn id="5" name="Score" dataCellStyle="repCellStyle"/>
   </tableColumns>
   <tableStyleInfo name="repTblStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TaskTypes" displayName="TaskTypes" ref="I1:I3" totalsRowShown="0" headerRowDxfId="6" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
-  <autoFilter ref="I1:I3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TaskTypes" displayName="TaskTypes" ref="I1:I4" totalsRowShown="0" headerRowDxfId="6" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
+  <autoFilter ref="I1:I4"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Task Type" dataCellStyle="repCellStyle"/>
+    <tableColumn id="1" name="Task Type" dataCellStyle="repCellStyle"/>
   </tableColumns>
   <tableStyleInfo name="repTblStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Priorities" displayName="Priorities" ref="K1:K6" totalsRowShown="0" headerRowDxfId="5" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
-  <autoFilter ref="K1:K6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Priorities" displayName="Priorities" ref="K1:K7" totalsRowShown="0" headerRowDxfId="5" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
+  <autoFilter ref="K1:K7"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Priority" dataCellStyle="repCellStyle"/>
+    <tableColumn id="1" name="Priority" dataCellStyle="repCellStyle"/>
   </tableColumns>
   <tableStyleInfo name="repTblStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="GrpMembers" displayName="GrpMembers" ref="M1:P137" totalsRowShown="0" headerRowDxfId="4" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
-  <autoFilter ref="M1:P137" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="GrpMembers" displayName="GrpMembers" ref="M1:P137" totalsRowShown="0" headerRowDxfId="4" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
+  <autoFilter ref="M1:P137"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Username" dataCellStyle="repCellStyle"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Last Name" dataCellStyle="repCellStyle"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Full Name" dataCellStyle="repCellStyle"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Group Name" dataCellStyle="repCellStyle"/>
+    <tableColumn id="1" name="Username" dataCellStyle="repCellStyle"/>
+    <tableColumn id="2" name="Last Name" dataCellStyle="repCellStyle"/>
+    <tableColumn id="3" name="Full Name" dataCellStyle="repCellStyle"/>
+    <tableColumn id="4" name="Group Name" dataCellStyle="repCellStyle"/>
   </tableColumns>
   <tableStyleInfo name="repTblStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="SurveyDefinitions" displayName="SurveyDefinitions" ref="R1:U8" totalsRowShown="0" headerRowDxfId="3" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
-  <autoFilter ref="R1:U8" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="SurveyDefinitions" displayName="SurveyDefinitions" ref="R1:U8" totalsRowShown="0" headerRowDxfId="3" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
+  <autoFilter ref="R1:U8"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Type" dataCellStyle="repCellStyle"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Question" dataCellStyle="repCellStyle"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Order" dataCellStyle="repCellStyle"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="DataType" dataCellStyle="repCellStyle"/>
+    <tableColumn id="1" name="Type" dataCellStyle="repCellStyle"/>
+    <tableColumn id="2" name="Question" dataCellStyle="repCellStyle"/>
+    <tableColumn id="3" name="Order" dataCellStyle="repCellStyle"/>
+    <tableColumn id="4" name="DataType" dataCellStyle="repCellStyle"/>
   </tableColumns>
   <tableStyleInfo name="repTblStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Categories" displayName="Categories" ref="W1:W13" totalsRowShown="0" headerRowDxfId="2" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
-  <autoFilter ref="W1:W13" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Categories" displayName="Categories" ref="W1:W14" totalsRowShown="0" headerRowDxfId="2" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
+  <autoFilter ref="W1:W14"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Category" dataCellStyle="repCellStyle"/>
+    <tableColumn id="1" name="Category" dataCellStyle="repCellStyle"/>
   </tableColumns>
   <tableStyleInfo name="repTblStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Subcategories" displayName="Subcategories" ref="Y1:Y33" totalsRowShown="0" headerRowDxfId="1" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
-  <autoFilter ref="Y1:Y33" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Subcategories" displayName="Subcategories" ref="Y1:Y34" totalsRowShown="0" headerRowDxfId="1" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
+  <autoFilter ref="Y1:Y34"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Subcategory" dataCellStyle="repCellStyle"/>
+    <tableColumn id="1" name="Subcategory" dataCellStyle="repCellStyle"/>
   </tableColumns>
   <tableStyleInfo name="repTblStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7B74C696-7F3D-4F4D-8A4E-BB84DF7F106A}" name="CustomerAccounts" displayName="CustomerAccounts" ref="AA1:AA6" totalsRowShown="0" headerRowDxfId="0" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
-  <autoFilter ref="AA1:AA6" xr:uid="{43C31E95-126B-4613-A210-1B98B797A18B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="CustomerAccounts" displayName="CustomerAccounts" ref="AA1:AA7" totalsRowShown="0" headerRowDxfId="0" headerRowCellStyle="repCellStyle" dataCellStyle="repCellStyle">
+  <autoFilter ref="AA1:AA7"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{70889A08-7F06-41EE-AB80-B6AAB95E1283}" name="Customer Account" dataCellStyle="repCellStyle"/>
+    <tableColumn id="1" name="Customer Account" dataCellStyle="repCellStyle"/>
   </tableColumns>
   <tableStyleInfo name="repTblStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1878,7 +1879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA137"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1955,7 +1956,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>382</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1973,10 +1974,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>382</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>382</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>31</v>
@@ -2003,18 +2004,18 @@
         <v>313</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -2032,10 +2033,10 @@
         <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>35</v>
@@ -2062,18 +2063,18 @@
         <v>313</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -2090,8 +2091,11 @@
       <c r="G4" s="4">
         <v>3</v>
       </c>
+      <c r="I4" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>38</v>
@@ -2118,18 +2122,18 @@
         <v>313</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -2147,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>41</v>
@@ -2174,18 +2178,18 @@
         <v>313</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -2203,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>44</v>
@@ -2230,18 +2234,21 @@
         <v>322</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>47</v>
@@ -2268,15 +2275,18 @@
         <v>322</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>50</v>
@@ -2303,13 +2313,16 @@
         <v>322</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="M9" s="4" t="s">
         <v>53</v>
       </c>
@@ -2323,10 +2336,10 @@
         <v>34</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -2343,10 +2356,10 @@
         <v>34</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
@@ -2363,10 +2376,10 @@
         <v>34</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -2383,10 +2396,10 @@
         <v>34</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>3</v>
+        <v>373</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -2403,10 +2416,10 @@
         <v>34</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>374</v>
+        <v>3</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -2422,8 +2435,11 @@
       <c r="P14" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="W14" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="Y14" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -2440,7 +2456,7 @@
         <v>34</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
@@ -2457,7 +2473,7 @@
         <v>34</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="13:25" x14ac:dyDescent="0.2">
@@ -2474,7 +2490,7 @@
         <v>34</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="13:25" x14ac:dyDescent="0.2">
@@ -2491,7 +2507,7 @@
         <v>34</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="13:25" x14ac:dyDescent="0.2">
@@ -2508,7 +2524,7 @@
         <v>34</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="13:25" x14ac:dyDescent="0.2">
@@ -2525,7 +2541,7 @@
         <v>34</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="13:25" x14ac:dyDescent="0.2">
@@ -2542,7 +2558,7 @@
         <v>34</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="13:25" x14ac:dyDescent="0.2">
@@ -2559,7 +2575,7 @@
         <v>34</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="13:25" x14ac:dyDescent="0.2">
@@ -2576,7 +2592,7 @@
         <v>34</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="13:25" x14ac:dyDescent="0.2">
@@ -2593,7 +2609,7 @@
         <v>34</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="13:25" x14ac:dyDescent="0.2">
@@ -2610,7 +2626,7 @@
         <v>34</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="13:25" x14ac:dyDescent="0.2">
@@ -2627,7 +2643,7 @@
         <v>34</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="13:25" x14ac:dyDescent="0.2">
@@ -2644,7 +2660,7 @@
         <v>34</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="13:25" x14ac:dyDescent="0.2">
@@ -2661,7 +2677,7 @@
         <v>34</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="13:25" x14ac:dyDescent="0.2">
@@ -2678,7 +2694,7 @@
         <v>34</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="13:25" x14ac:dyDescent="0.2">
@@ -2695,7 +2711,7 @@
         <v>34</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="13:25" x14ac:dyDescent="0.2">
@@ -2712,7 +2728,7 @@
         <v>34</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="13:25" x14ac:dyDescent="0.2">
@@ -2729,7 +2745,7 @@
         <v>34</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="13:25" x14ac:dyDescent="0.2">
@@ -2746,7 +2762,7 @@
         <v>34</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="13:25" x14ac:dyDescent="0.2">
@@ -2761,6 +2777,9 @@
       </c>
       <c r="P34" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="Y34" s="4" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="13:25" x14ac:dyDescent="0.2">
